--- a/parameter_files/v3/lambdas.xlsx
+++ b/parameter_files/v3/lambdas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C5B8FD7-FF03-44C9-BD9C-A46EDB314420}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E96395D-E7E8-4BC5-989B-048FD71DD73D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -731,10 +731,10 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB29" sqref="AB29"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,9 +869,6 @@
       </c>
       <c r="B3" s="16"/>
       <c r="H3" s="6"/>
-      <c r="W3">
-        <v>1</v>
-      </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -897,9 +894,6 @@
       </c>
       <c r="B5" s="16"/>
       <c r="H5" s="6"/>
-      <c r="T5">
-        <v>0.5</v>
-      </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
@@ -910,9 +904,6 @@
       </c>
       <c r="B6" s="16"/>
       <c r="H6" s="6"/>
-      <c r="T6">
-        <v>3</v>
-      </c>
       <c r="Z6">
         <v>1</v>
       </c>
@@ -1082,11 +1073,35 @@
       <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="22" t="s">
         <v>35</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
@@ -1111,6 +1126,18 @@
     <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/parameter_files/v3/lambdas.xlsx
+++ b/parameter_files/v3/lambdas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E96395D-E7E8-4BC5-989B-048FD71DD73D}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD1A49E-9E50-4BD1-B537-CCD690B6B856}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
@@ -429,6 +429,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,17 +734,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617137F-8957-46B3-A8AD-7CB6BD779CD3}">
   <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.26953125" style="6" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="27" max="27" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -887,6 +892,9 @@
       <c r="Z4" s="12">
         <v>1</v>
       </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -905,6 +913,9 @@
       <c r="B6" s="16"/>
       <c r="H6" s="6"/>
       <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
         <v>1</v>
       </c>
     </row>
@@ -1155,7 +1166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>20</v>
       </c>

--- a/parameter_files/v3/lambdas.xlsx
+++ b/parameter_files/v3/lambdas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACD1A49E-9E50-4BD1-B537-CCD690B6B856}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4257E9-F810-454B-AF4A-82A9720B9307}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
@@ -735,10 +735,10 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,7 +882,9 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="W4">
         <v>1</v>
@@ -910,7 +912,9 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="Z6">
         <v>1</v>
